--- a/trackers/-13&P TM Tracker.xlsx
+++ b/trackers/-13&P TM Tracker.xlsx
@@ -1,26 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicho\OneDrive\Desktop\Dev Projects\TMShellGenerator-Beta2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicho\OneDrive\Desktop\Dev Projects\TM-Generator\trackers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76CF8D0B-2939-4AFD-ADE5-53324DF0A71F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED00AE53-1827-4DA4-A2FE-99EFF889AF30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="1900" windowWidth="14160" windowHeight="8280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="7755" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="-13&amp;P" sheetId="2" r:id="rId1"/>
+    <sheet name="Chapters" sheetId="3" r:id="rId2"/>
+    <sheet name="Procedures" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="176">
   <si>
     <t>Title Page</t>
   </si>
@@ -103,18 +105,12 @@
     <t>M00005</t>
   </si>
   <si>
-    <t>Remove</t>
-  </si>
-  <si>
     <t>M00006</t>
   </si>
   <si>
     <t>M00007</t>
   </si>
   <si>
-    <t>Install</t>
-  </si>
-  <si>
     <t>M00008</t>
   </si>
   <si>
@@ -175,9 +171,6 @@
     <t>Rear Matter</t>
   </si>
   <si>
-    <t>Chapter 2 - Operator Procedures</t>
-  </si>
-  <si>
     <t>Preparation for Use - Siting Requirements</t>
   </si>
   <si>
@@ -193,18 +186,12 @@
     <t>O00005</t>
   </si>
   <si>
-    <t>Chapter 3 - Troubleshooting Master Index</t>
-  </si>
-  <si>
     <t>T00000</t>
   </si>
   <si>
     <t>Troubleshooting Index</t>
   </si>
   <si>
-    <t>Chapter 4 - Operator Troubleshooting</t>
-  </si>
-  <si>
     <t>Troubleshooting Introduction</t>
   </si>
   <si>
@@ -226,9 +213,6 @@
     <t>Water Faults</t>
   </si>
   <si>
-    <t>Chapter 5 - Operator PMCS</t>
-  </si>
-  <si>
     <t>PMCS Before</t>
   </si>
   <si>
@@ -241,36 +225,18 @@
     <t>PMCS Annually</t>
   </si>
   <si>
-    <t>Chapter 6 - Operator Maintenance</t>
-  </si>
-  <si>
     <t>Emergency Stop</t>
   </si>
   <si>
-    <t>Service</t>
-  </si>
-  <si>
     <t>Cargo Door</t>
   </si>
   <si>
-    <t>Repair</t>
-  </si>
-  <si>
     <t>Shelter</t>
   </si>
   <si>
-    <t>Prepforuse</t>
-  </si>
-  <si>
-    <t>Transport</t>
-  </si>
-  <si>
     <t>Braising Pans</t>
   </si>
   <si>
-    <t>Clean</t>
-  </si>
-  <si>
     <t>D00003</t>
   </si>
   <si>
@@ -292,18 +258,6 @@
     <t>S00009</t>
   </si>
   <si>
-    <t>Chapter 10 - Destruction of Equipment to Prevent Enemy Use</t>
-  </si>
-  <si>
-    <t>Chapter 8 - Maintainer PMCS</t>
-  </si>
-  <si>
-    <t>Chapter 9 - Maintainer Maintenance</t>
-  </si>
-  <si>
-    <t>Chapter 7 - Maintainer Troubleshooting</t>
-  </si>
-  <si>
     <t>WP NO:</t>
   </si>
   <si>
@@ -373,21 +327,12 @@
     <t>T00105</t>
   </si>
   <si>
-    <t>Prepstore</t>
-  </si>
-  <si>
     <t>Maintenance Allocation Chart (MAC) Intro</t>
   </si>
   <si>
     <t>Maintenance Allocation Chart (MAC)</t>
   </si>
   <si>
-    <t>Chapter 12 - Supporting Information</t>
-  </si>
-  <si>
-    <t>Chapter 11 - Repair Parts and Special Tools List</t>
-  </si>
-  <si>
     <t>RPSTL Introduction</t>
   </si>
   <si>
@@ -434,6 +379,177 @@
   </si>
   <si>
     <t>R00007</t>
+  </si>
+  <si>
+    <t>Chapter</t>
+  </si>
+  <si>
+    <t>Operator Procedures</t>
+  </si>
+  <si>
+    <t>Troubleshooting Master Index</t>
+  </si>
+  <si>
+    <t>Operator Troubleshooting</t>
+  </si>
+  <si>
+    <t>Operator PMCS</t>
+  </si>
+  <si>
+    <t>Operator Maintenance</t>
+  </si>
+  <si>
+    <t>Destruction of Equipment to Prevent Enemy Use</t>
+  </si>
+  <si>
+    <t>Supporting Information</t>
+  </si>
+  <si>
+    <t>Procedures</t>
+  </si>
+  <si>
+    <t>inspect</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>service</t>
+  </si>
+  <si>
+    <t>adjust</t>
+  </si>
+  <si>
+    <t>align</t>
+  </si>
+  <si>
+    <t>calibration</t>
+  </si>
+  <si>
+    <t>remove</t>
+  </si>
+  <si>
+    <t>install</t>
+  </si>
+  <si>
+    <t>replace</t>
+  </si>
+  <si>
+    <t>repair</t>
+  </si>
+  <si>
+    <t>paint</t>
+  </si>
+  <si>
+    <t>overhaul</t>
+  </si>
+  <si>
+    <t>rebuild</t>
+  </si>
+  <si>
+    <t>lube</t>
+  </si>
+  <si>
+    <t>mark</t>
+  </si>
+  <si>
+    <t>pack</t>
+  </si>
+  <si>
+    <t>unpack</t>
+  </si>
+  <si>
+    <t>preservation</t>
+  </si>
+  <si>
+    <t>prepforuse</t>
+  </si>
+  <si>
+    <t>assem</t>
+  </si>
+  <si>
+    <t>disassem</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>ndi</t>
+  </si>
+  <si>
+    <t>ris</t>
+  </si>
+  <si>
+    <t>pis</t>
+  </si>
+  <si>
+    <t>tow</t>
+  </si>
+  <si>
+    <t>jack</t>
+  </si>
+  <si>
+    <t>park</t>
+  </si>
+  <si>
+    <t>moor</t>
+  </si>
+  <si>
+    <t>cover</t>
+  </si>
+  <si>
+    <t>hoist</t>
+  </si>
+  <si>
+    <t>sling</t>
+  </si>
+  <si>
+    <t>extpwr</t>
+  </si>
+  <si>
+    <t>prepstore</t>
+  </si>
+  <si>
+    <t>prepship</t>
+  </si>
+  <si>
+    <t>transport</t>
+  </si>
+  <si>
+    <t>arm</t>
+  </si>
+  <si>
+    <t>load</t>
+  </si>
+  <si>
+    <t>unload</t>
+  </si>
+  <si>
+    <t>installperdev</t>
+  </si>
+  <si>
+    <t>uninstallperdev</t>
+  </si>
+  <si>
+    <t>upgrade</t>
+  </si>
+  <si>
+    <t>configure</t>
+  </si>
+  <si>
+    <t>debug</t>
+  </si>
+  <si>
+    <t>Maintainer Troubeshooting</t>
+  </si>
+  <si>
+    <t>Maintainer PMCS</t>
+  </si>
+  <si>
+    <t>Maintainer Maintenance</t>
+  </si>
+  <si>
+    <t>Repair Parts and Special Tools List</t>
   </si>
 </sst>
 </file>
@@ -568,7 +684,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -607,6 +723,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -622,6 +739,26 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5ED16D31-AA3B-404F-8EF4-E92EF67009C4}" name="Table4" displayName="Table4" ref="A1:A14" totalsRowShown="0">
+  <autoFilter ref="A1:A14" xr:uid="{77DC6E53-A4E2-47FB-94F7-F26611073301}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{5D252BF2-D357-43E7-88DC-7C01DFCF5E8C}" name="Chapter"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E9476C06-4396-4F03-8C7A-FD4F94F2C2AB}" name="Table5" displayName="Table5" ref="A1:A45" totalsRowShown="0">
+  <autoFilter ref="A1:A45" xr:uid="{35B06D75-B185-4D44-9F87-E9B47BFEB93B}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{45D931A8-C58E-4C5B-B729-B7F386E79A62}" name="Procedures"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -907,6 +1044,26 @@
 </a:theme>
 </file>
 
+<file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
+<wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
+  <wetp:taskpane dockstate="right" visibility="0" width="525" row="1">
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </wetp:taskpane>
+</wetp:taskpanes>
+</file>
+
+<file path=xl/webextensions/webextension1.xml><?xml version="1.0" encoding="utf-8"?>
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{99E3D58A-804F-453D-B0E4-BF49246F039F}">
+  <we:reference id="wa104380526" version="1.1.0.0" store="en-001" storeType="OMEX"/>
+  <we:alternateReferences>
+    <we:reference id="WA104380526" version="1.1.0.0" store="" storeType="OMEX"/>
+  </we:alternateReferences>
+  <we:properties/>
+  <we:bindings/>
+  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</we:webextension>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
@@ -914,8 +1071,8 @@
   </sheetPr>
   <dimension ref="A1:D82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E67" sqref="E67"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -928,13 +1085,13 @@
     <row r="1" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="7" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -1019,7 +1176,7 @@
       <c r="A11" s="1"/>
       <c r="B11" s="3"/>
       <c r="C11" s="4" t="s">
-        <v>51</v>
+        <v>120</v>
       </c>
       <c r="D11" s="3"/>
     </row>
@@ -1039,7 +1196,7 @@
         <v>14</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D13" s="5"/>
     </row>
@@ -1049,24 +1206,24 @@
         <v>15</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D14" s="5"/>
     </row>
     <row r="15" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D15" s="5"/>
     </row>
     <row r="16" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>16</v>
@@ -1077,17 +1234,17 @@
       <c r="A17" s="1"/>
       <c r="B17" s="3"/>
       <c r="C17" s="8" t="s">
-        <v>57</v>
+        <v>121</v>
       </c>
       <c r="D17" s="3"/>
     </row>
     <row r="18" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D18" s="5"/>
     </row>
@@ -1095,7 +1252,7 @@
       <c r="A19" s="1"/>
       <c r="B19" s="3"/>
       <c r="C19" s="8" t="s">
-        <v>60</v>
+        <v>122</v>
       </c>
       <c r="D19" s="3"/>
     </row>
@@ -1105,7 +1262,7 @@
         <v>17</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D20" s="5"/>
     </row>
@@ -1115,7 +1272,7 @@
         <v>18</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D21" s="5"/>
     </row>
@@ -1125,27 +1282,27 @@
         <v>19</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D22" s="5"/>
     </row>
     <row r="23" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D23" s="5"/>
     </row>
     <row r="24" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D24" s="5"/>
     </row>
@@ -1153,7 +1310,7 @@
       <c r="A25" s="1"/>
       <c r="B25" s="3"/>
       <c r="C25" s="8" t="s">
-        <v>68</v>
+        <v>123</v>
       </c>
       <c r="D25" s="3"/>
     </row>
@@ -1173,7 +1330,7 @@
         <v>22</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D27" s="5"/>
     </row>
@@ -1183,7 +1340,7 @@
         <v>23</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D28" s="5"/>
     </row>
@@ -1193,7 +1350,7 @@
         <v>25</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D29" s="5"/>
     </row>
@@ -1201,7 +1358,7 @@
       <c r="A30" s="1"/>
       <c r="B30" s="3"/>
       <c r="C30" s="8" t="s">
-        <v>73</v>
+        <v>124</v>
       </c>
       <c r="D30" s="3"/>
     </row>
@@ -1211,139 +1368,139 @@
         <v>26</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>27</v>
+        <v>134</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>75</v>
+        <v>130</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1"/>
       <c r="B33" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1"/>
       <c r="B34" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>77</v>
+        <v>137</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>79</v>
+        <v>146</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1"/>
       <c r="B36" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>80</v>
+        <v>163</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="1"/>
       <c r="B37" s="12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>82</v>
+        <v>149</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="1"/>
       <c r="B38" s="11"/>
       <c r="C38" s="8" t="s">
-        <v>93</v>
+        <v>172</v>
       </c>
       <c r="D38" s="11"/>
     </row>
     <row r="39" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="1"/>
       <c r="B39" s="5" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D39" s="5"/>
     </row>
     <row r="40" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="1"/>
       <c r="B40" s="5" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D40" s="5"/>
     </row>
     <row r="41" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="1"/>
       <c r="B41" s="5" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D41" s="5"/>
     </row>
     <row r="42" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="1"/>
       <c r="B42" s="5" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D42" s="5"/>
     </row>
     <row r="43" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="1"/>
       <c r="B43" s="5" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D43" s="5"/>
     </row>
@@ -1351,14 +1508,14 @@
       <c r="A44" s="1"/>
       <c r="B44" s="3"/>
       <c r="C44" s="8" t="s">
-        <v>91</v>
+        <v>173</v>
       </c>
       <c r="D44" s="3"/>
     </row>
     <row r="45" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="1"/>
       <c r="B45" s="5" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>21</v>
@@ -1368,40 +1525,40 @@
     <row r="46" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="1"/>
       <c r="B46" s="5" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D46" s="5"/>
     </row>
     <row r="47" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="1"/>
       <c r="B47" s="5" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D47" s="5"/>
     </row>
     <row r="48" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="1"/>
       <c r="B48" s="5" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D48" s="5"/>
     </row>
     <row r="49" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="1"/>
       <c r="B49" s="5" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D49" s="5"/>
     </row>
@@ -1409,311 +1566,668 @@
       <c r="A50" s="1"/>
       <c r="B50" s="3"/>
       <c r="C50" s="8" t="s">
-        <v>92</v>
+        <v>174</v>
       </c>
       <c r="D50" s="3"/>
     </row>
     <row r="51" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="1"/>
       <c r="B51" s="5" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="D51" s="5"/>
     </row>
     <row r="52" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="1"/>
       <c r="B52" s="5" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>75</v>
+        <v>130</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="1"/>
       <c r="B53" s="5" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="1"/>
       <c r="B54" s="5" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>77</v>
+        <v>137</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="1"/>
       <c r="B55" s="10" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>117</v>
+        <v>161</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="1"/>
       <c r="B56" s="12" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D56" s="15" t="s">
-        <v>80</v>
+        <v>163</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="1"/>
       <c r="B57" s="12" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="D57" s="12" t="s">
-        <v>82</v>
+        <v>149</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="1"/>
       <c r="B58" s="13"/>
       <c r="C58" s="14" t="s">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="D58" s="13"/>
     </row>
     <row r="59" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B59" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D59" s="5"/>
     </row>
     <row r="60" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B60" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="D60" s="5"/>
     </row>
     <row r="61" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B61" s="5" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="D61" s="5"/>
     </row>
     <row r="62" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B62" s="3"/>
       <c r="C62" s="8" t="s">
-        <v>121</v>
+        <v>175</v>
       </c>
       <c r="D62" s="3"/>
     </row>
     <row r="63" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B63" s="5" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="D63" s="5"/>
     </row>
     <row r="64" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B64" s="5" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="D64" s="5"/>
     </row>
     <row r="65" spans="2:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B65" s="5" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="D65" s="5"/>
     </row>
     <row r="66" spans="2:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B66" s="5" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="D66" s="5"/>
     </row>
     <row r="67" spans="2:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B67" s="5" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="D67" s="5"/>
     </row>
     <row r="68" spans="2:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B68" s="5" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="D68" s="5"/>
     </row>
     <row r="69" spans="2:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B69" s="5" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="D69" s="5"/>
     </row>
     <row r="70" spans="2:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B70" s="3"/>
       <c r="C70" s="8" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="D70" s="3"/>
     </row>
     <row r="71" spans="2:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B71" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D71" s="5"/>
     </row>
     <row r="72" spans="2:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B72" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="D72" s="5"/>
     </row>
     <row r="73" spans="2:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B73" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="D73" s="5"/>
     </row>
     <row r="74" spans="2:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B74" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D74" s="5"/>
     </row>
     <row r="75" spans="2:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B75" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D75" s="5"/>
     </row>
     <row r="76" spans="2:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B76" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D76" s="5"/>
     </row>
     <row r="77" spans="2:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B77" s="5" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="D77" s="5"/>
     </row>
     <row r="78" spans="2:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B78" s="5" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="D78" s="5"/>
     </row>
     <row r="79" spans="2:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B79" s="5" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D79" s="5"/>
     </row>
     <row r="80" spans="2:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B80" s="5" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="D80" s="5"/>
     </row>
     <row r="81" spans="2:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B81" s="5" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D81" s="5"/>
     </row>
     <row r="82" spans="2:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B82" s="3"/>
       <c r="C82" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D82" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{151D1322-9505-46F7-8AB5-F58BC4E9136E}">
+          <x14:formula1>
+            <xm:f>Chapters!$A$2:$A$14</xm:f>
+          </x14:formula1>
+          <xm:sqref>C7 C11 C17 C19 C25 C30 C38 C44 C50 C58 C62 C70 C82</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F3883903-5ACF-4832-BC0E-F9AAFE5EF348}">
+          <x14:formula1>
+            <xm:f>Procedures!$A$2:$A$45</xm:f>
+          </x14:formula1>
+          <xm:sqref>D52:D57 D31:D37</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C005F48-F8DD-4439-9FCB-6C252699C853}">
+  <dimension ref="A1:A14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="43.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63CBE0D2-BB34-4EEC-AEF6-EFA9463B26BC}">
+  <dimension ref="A1:D45"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="17.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>139</v>
+      </c>
+      <c r="D13" s="16"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>171</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>